--- a/폴란드 물가.xlsx
+++ b/폴란드 물가.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F54868-DDBE-E344-9C7C-0F73AEDAF924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062F2C4F-6C03-7D44-A041-F1DBAEDF6311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15700" xr2:uid="{F17C2FB6-547F-3C46-ABE6-F3CBDFBB5B25}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
   <si>
     <t>은행ATM 수수료</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -346,6 +346,42 @@
   </si>
   <si>
     <t>150g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지(등쪽?)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파게티면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파게티소스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨 날개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>450g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자튀김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멜론(노란색)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥주(칼스버그)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -732,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CED2579-1A50-D24D-8375-BF4434C979AB}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -807,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D44" si="0">C4*285</f>
+        <f t="shared" ref="D4:D51" si="0">C4*285</f>
         <v>855</v>
       </c>
     </row>
@@ -886,35 +922,36 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
-        <v>48.99</v>
+        <f>41.22/18</f>
+        <v>2.29</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>13962.150000000001</v>
+        <v>652.65</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>32.39</v>
+        <v>48.99</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>9231.15</v>
+        <v>13962.150000000001</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -922,17 +959,17 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2">
-        <v>39.35</v>
+        <v>32.39</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>11214.75</v>
+        <v>9231.15</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -940,17 +977,17 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>22.99</v>
+        <v>39.35</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>6552.15</v>
+        <v>11214.75</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -958,17 +995,17 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>50.91</v>
+        <v>22.99</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>14509.349999999999</v>
+        <v>6552.15</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -976,17 +1013,17 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
-        <v>55.34</v>
+        <v>50.91</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>15771.900000000001</v>
+        <v>14509.349999999999</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -994,17 +1031,17 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2">
-        <v>5.77</v>
+        <v>55.34</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>1644.4499999999998</v>
+        <v>15771.900000000001</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -1012,17 +1049,17 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2">
-        <v>4.1500000000000004</v>
+        <v>5.77</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>1182.75</v>
+        <v>1644.4499999999998</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -1030,17 +1067,17 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>9.49</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>2704.65</v>
+        <v>1182.75</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -1048,7 +1085,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -1066,17 +1103,17 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2">
-        <v>7.98</v>
+        <v>9.49</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>2274.3000000000002</v>
+        <v>2704.65</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -1084,17 +1121,17 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2">
-        <v>17.82</v>
+        <v>7.98</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>5078.7</v>
+        <v>2274.3000000000002</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -1102,17 +1139,17 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>9.19</v>
+        <v>17.82</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>2619.1499999999996</v>
+        <v>5078.7</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -1120,18 +1157,17 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2">
-        <f>50.14/4.6</f>
-        <v>10.9</v>
+        <v>9.19</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>3106.5</v>
+        <v>2619.1499999999996</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -1145,11 +1181,12 @@
         <v>39</v>
       </c>
       <c r="C23" s="2">
-        <v>6.7990000000000004</v>
+        <f>50.14/4.6</f>
+        <v>10.9</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>1937.7150000000001</v>
+        <v>3106.5</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -1157,17 +1194,17 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2">
-        <v>14.99</v>
+        <v>6.7990000000000004</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>4272.1499999999996</v>
+        <v>1937.7150000000001</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -1175,17 +1212,18 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>8.6</v>
+        <f>23.46/9.78</f>
+        <v>2.3987730061349697</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>2451</v>
+        <f>C25*285</f>
+        <v>683.65030674846639</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -1193,35 +1231,35 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2">
-        <v>21.99</v>
+        <v>1.6950000000000001</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>6267.15</v>
+        <f>C26*285</f>
+        <v>483.07500000000005</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>8.6</v>
+        <v>14.99</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>2451</v>
+        <v>4272.1499999999996</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -1229,17 +1267,17 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2">
-        <v>6.75</v>
+        <v>8.6</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>1923.75</v>
+        <v>2451</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -1247,14 +1285,17 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
       </c>
       <c r="C29" s="2">
-        <v>5.99</v>
+        <v>21.99</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>1707.15</v>
+        <v>6267.15</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -1262,17 +1303,17 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2">
-        <v>12.29</v>
+        <v>8.6</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>3502.6499999999996</v>
+        <v>2451</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -1280,17 +1321,17 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2">
-        <v>5.99</v>
+        <v>6.75</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>1707.15</v>
+        <v>1923.75</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -1298,17 +1339,14 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2">
-        <v>32.58</v>
+        <v>5.99</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>9285.2999999999993</v>
+        <v>1707.15</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -1316,17 +1354,17 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2">
-        <v>84.7</v>
+        <v>12.29</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>24139.5</v>
+        <v>3502.6499999999996</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -1334,17 +1372,17 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C34" s="2">
-        <v>7.01</v>
+        <v>5.99</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>1997.85</v>
+        <v>1707.15</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -1352,17 +1390,17 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
-        <v>32.99</v>
+        <v>32.58</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>9402.1500000000015</v>
+        <v>9285.2999999999993</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -1370,17 +1408,17 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
-        <v>38.119999999999997</v>
+        <v>84.7</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>10864.199999999999</v>
+        <v>24139.5</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -1388,17 +1426,17 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2">
-        <v>20.53</v>
+        <v>7.01</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>5851.05</v>
+        <v>1997.85</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -1406,18 +1444,17 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2">
-        <f>23.46/9.78</f>
-        <v>2.3987730061349697</v>
+        <v>32.99</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>683.65030674846639</v>
+        <v>9402.1500000000015</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -1425,17 +1462,17 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C39" s="2">
-        <v>9.99</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
-        <v>2847.15</v>
+        <v>10864.199999999999</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -1443,17 +1480,17 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C40" s="2">
-        <v>19.899999999999999</v>
+        <v>20.53</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
-        <v>5671.5</v>
+        <v>5851.05</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
@@ -1461,17 +1498,17 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C41" s="2">
-        <v>8.7899999999999991</v>
+        <v>9.99</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
-        <v>2505.1499999999996</v>
+        <v>2847.15</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -1479,17 +1516,17 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C42" s="2">
-        <v>28.59</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
-        <v>8148.15</v>
+        <v>5671.5</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -1497,17 +1534,17 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2">
-        <v>6.75</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
-        <v>1923.75</v>
+        <v>2505.1499999999996</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -1515,20 +1552,146 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="2">
+        <v>28.59</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>8148.15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>1923.75</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>76</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C46" s="2">
         <v>8.99</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D46" s="1">
         <f t="shared" si="0"/>
         <v>2562.15</v>
       </c>
-      <c r="E44" t="s">
-        <v>14</v>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>1080.1500000000001</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>852.15000000000009</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>2847.15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5.67</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="0"/>
+        <v>1615.95</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>2764.5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/폴란드 물가.xlsx
+++ b/폴란드 물가.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772A1DFD-0538-D045-8C72-66A2D076F90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56827719-90D5-654B-9A65-A766C13E98A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F17C2FB6-547F-3C46-ABE6-F3CBDFBB5B25}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{F17C2FB6-547F-3C46-ABE6-F3CBDFBB5B25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="128">
   <si>
     <t>은행ATM 수수료</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -523,6 +523,30 @@
   <si>
     <t>스테이크 고기 
 (Antrykotu-립아이-꽃등심)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵(크로와상)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵(도너츠)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플망고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1kg(4개)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -960,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CED2579-1A50-D24D-8375-BF4434C979AB}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1042,7 +1066,7 @@
         <v>10.9</v>
       </c>
       <c r="E3" s="8">
-        <f>D3*$B$1</f>
+        <f t="shared" ref="E3:E18" si="0">D3*$B$1</f>
         <v>3161</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1061,7 +1085,7 @@
         <v>55.34</v>
       </c>
       <c r="K3" s="8">
-        <f>J3*$B$1</f>
+        <f t="shared" ref="K3:K16" si="1">J3*$B$1</f>
         <v>16048.6</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -1082,7 +1106,7 @@
         <v>6.7990000000000004</v>
       </c>
       <c r="E4" s="8">
-        <f>D4*$B$1</f>
+        <f t="shared" si="0"/>
         <v>1971.71</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -1101,7 +1125,7 @@
         <v>5.77</v>
       </c>
       <c r="K4" s="8">
-        <f>J4*$B$1</f>
+        <f t="shared" si="1"/>
         <v>1673.3</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -1122,7 +1146,7 @@
         <v>13.999000000000001</v>
       </c>
       <c r="E5" s="8">
-        <f>D5*$B$1</f>
+        <f t="shared" si="0"/>
         <v>4059.71</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1141,7 +1165,7 @@
         <v>9.49</v>
       </c>
       <c r="K5" s="8">
-        <f>J5*$B$1</f>
+        <f t="shared" si="1"/>
         <v>2752.1</v>
       </c>
       <c r="L5" s="6" t="s">
@@ -1163,7 +1187,7 @@
         <v>2.3987730061349697</v>
       </c>
       <c r="E6" s="8">
-        <f>D6*$B$1</f>
+        <f t="shared" si="0"/>
         <v>695.64417177914117</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1182,7 +1206,7 @@
         <v>7.98</v>
       </c>
       <c r="K6" s="8">
-        <f>J6*$B$1</f>
+        <f t="shared" si="1"/>
         <v>2314.2000000000003</v>
       </c>
       <c r="L6" s="6" t="s">
@@ -1203,7 +1227,7 @@
         <v>1.6950000000000001</v>
       </c>
       <c r="E7" s="8">
-        <f>D7*$B$1</f>
+        <f t="shared" si="0"/>
         <v>491.55</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1222,7 +1246,7 @@
         <v>17.82</v>
       </c>
       <c r="K7" s="8">
-        <f>J7*$B$1</f>
+        <f t="shared" si="1"/>
         <v>5167.8</v>
       </c>
       <c r="L7" s="6" t="s">
@@ -1243,7 +1267,7 @@
         <v>2.1989999999999998</v>
       </c>
       <c r="E8" s="8">
-        <f>D8*$B$1</f>
+        <f t="shared" si="0"/>
         <v>637.70999999999992</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1262,7 +1286,7 @@
         <v>8.6</v>
       </c>
       <c r="K8" s="8">
-        <f>J8*$B$1</f>
+        <f t="shared" si="1"/>
         <v>2494</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -1283,7 +1307,7 @@
         <v>36.99</v>
       </c>
       <c r="E9" s="8">
-        <f>D9*$B$1</f>
+        <f t="shared" si="0"/>
         <v>10727.1</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1302,7 +1326,7 @@
         <v>12.29</v>
       </c>
       <c r="K9" s="8">
-        <f>J9*$B$1</f>
+        <f t="shared" si="1"/>
         <v>3564.1</v>
       </c>
       <c r="L9" s="6" t="s">
@@ -1323,7 +1347,7 @@
         <v>9.99</v>
       </c>
       <c r="E10" s="8">
-        <f>D10*$B$1</f>
+        <f t="shared" si="0"/>
         <v>2897.1</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -1342,7 +1366,7 @@
         <v>12.9</v>
       </c>
       <c r="K10" s="8">
-        <f>J10*$B$1</f>
+        <f t="shared" si="1"/>
         <v>3741</v>
       </c>
       <c r="L10" s="6" t="s">
@@ -1363,7 +1387,7 @@
         <v>43.99</v>
       </c>
       <c r="E11" s="8">
-        <f>D11*$B$1</f>
+        <f t="shared" si="0"/>
         <v>12757.1</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1382,7 +1406,7 @@
         <v>38.119999999999997</v>
       </c>
       <c r="K11" s="8">
-        <f>J11*$B$1</f>
+        <f t="shared" si="1"/>
         <v>11054.8</v>
       </c>
       <c r="L11" s="6" t="s">
@@ -1403,7 +1427,7 @@
         <v>18.78</v>
       </c>
       <c r="E12" s="8">
-        <f>D12*$B$1</f>
+        <f t="shared" si="0"/>
         <v>5446.2000000000007</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1422,7 +1446,7 @@
         <v>20.53</v>
       </c>
       <c r="K12" s="8">
-        <f>J12*$B$1</f>
+        <f t="shared" si="1"/>
         <v>5953.7000000000007</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -1443,7 +1467,7 @@
         <v>3.27</v>
       </c>
       <c r="E13" s="8">
-        <f>D13*$B$1</f>
+        <f t="shared" si="0"/>
         <v>948.3</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1462,7 +1486,7 @@
         <v>6.75</v>
       </c>
       <c r="K13" s="8">
-        <f>J13*$B$1</f>
+        <f t="shared" si="1"/>
         <v>1957.5</v>
       </c>
       <c r="L13" s="6" t="s">
@@ -1483,7 +1507,7 @@
         <v>14.99</v>
       </c>
       <c r="E14" s="8">
-        <f>D14*$B$1</f>
+        <f t="shared" si="0"/>
         <v>4347.1000000000004</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -1502,7 +1526,7 @@
         <v>12.48</v>
       </c>
       <c r="K14" s="8">
-        <f>J14*$B$1</f>
+        <f t="shared" si="1"/>
         <v>3619.2000000000003</v>
       </c>
       <c r="L14" s="6" t="s">
@@ -1523,7 +1547,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="E15" s="8">
-        <f>D15*$B$1</f>
+        <f t="shared" si="0"/>
         <v>2813</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1542,7 +1566,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="K15" s="8">
-        <f>J15*$B$1</f>
+        <f t="shared" si="1"/>
         <v>5191</v>
       </c>
       <c r="L15" s="6" t="s">
@@ -1551,23 +1575,23 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>5.83</v>
+        <v>16.14</v>
       </c>
       <c r="E16" s="8">
-        <f>D16*$B$1</f>
-        <v>1690.7</v>
+        <f t="shared" si="0"/>
+        <v>4680.6000000000004</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>110</v>
@@ -1582,7 +1606,7 @@
         <v>32.39</v>
       </c>
       <c r="K16" s="8">
-        <f>J16*$B$1</f>
+        <f t="shared" si="1"/>
         <v>9393.1</v>
       </c>
       <c r="L16" s="6" t="s">
@@ -1591,23 +1615,23 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>8.0399999999999991</v>
+        <v>4.99</v>
       </c>
       <c r="E17" s="8">
-        <f>D17*$B$1</f>
-        <v>2331.6</v>
+        <f t="shared" si="0"/>
+        <v>1447.1000000000001</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>110</v>
@@ -1631,23 +1655,23 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D18" s="7">
-        <v>8.41</v>
+        <v>10.99</v>
       </c>
       <c r="E18" s="8">
-        <f>D18*$B$1</f>
-        <v>2438.9</v>
+        <f t="shared" si="0"/>
+        <v>3187.1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>110</v>
@@ -1674,18 +1698,17 @@
         <v>111</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="7">
-        <f>11.27/4</f>
-        <v>2.8174999999999999</v>
+        <v>5.83</v>
       </c>
       <c r="E19" s="8">
         <f>D19*$B$1</f>
-        <v>817.07499999999993</v>
+        <v>1690.7</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>13</v>
@@ -1715,21 +1738,20 @@
         <v>111</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="7">
-        <f>41.22/18</f>
-        <v>2.29</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="E20" s="8">
         <f>D20*$B$1</f>
-        <v>664.1</v>
+        <v>2331.6</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>110</v>
@@ -1756,17 +1778,17 @@
         <v>111</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" s="7">
-        <v>48.99</v>
+        <v>8.41</v>
       </c>
       <c r="E21" s="8">
         <f>D21*$B$1</f>
-        <v>14207.1</v>
+        <v>2438.9</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>13</v>
@@ -1796,17 +1818,18 @@
         <v>111</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>23.73</v>
+        <f>11.27/4</f>
+        <v>2.8174999999999999</v>
       </c>
       <c r="E22" s="8">
         <f>D22*$B$1</f>
-        <v>6881.7</v>
+        <v>817.07499999999993</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>13</v>
@@ -1836,20 +1859,21 @@
         <v>111</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D23" s="7">
-        <v>7.37</v>
+        <f>41.22/18</f>
+        <v>2.29</v>
       </c>
       <c r="E23" s="8">
         <f>D23*$B$1</f>
-        <v>2137.3000000000002</v>
+        <v>664.1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>117</v>
@@ -1874,17 +1898,17 @@
         <v>111</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>3.69</v>
+        <v>48.99</v>
       </c>
       <c r="E24" s="8">
         <f>D24*$B$1</f>
-        <v>1070.0999999999999</v>
+        <v>14207.1</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>13</v>
@@ -1893,36 +1917,38 @@
         <v>117</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>9</v>
       </c>
       <c r="J24" s="7">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="K24" s="8">
         <f>J24*$B$1</f>
-        <v>870</v>
-      </c>
-      <c r="L24" s="6"/>
+        <v>478.5</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D25" s="7">
-        <v>3.35</v>
+        <v>23.73</v>
       </c>
       <c r="E25" s="8">
         <f>D25*$B$1</f>
-        <v>971.5</v>
+        <v>6881.7</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>13</v>
@@ -1931,38 +1957,38 @@
         <v>117</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>9</v>
       </c>
       <c r="J25" s="7">
-        <v>4.1500000000000004</v>
+        <v>2.29</v>
       </c>
       <c r="K25" s="8">
         <f>J25*$B$1</f>
-        <v>1203.5</v>
+        <v>664.1</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D26" s="7">
-        <v>5.99</v>
+        <v>7.37</v>
       </c>
       <c r="E26" s="8">
         <f>D26*$B$1</f>
-        <v>1737.1000000000001</v>
+        <v>2137.3000000000002</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>13</v>
@@ -1971,38 +1997,36 @@
         <v>117</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>9</v>
       </c>
       <c r="J26" s="7">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="K26" s="8">
         <f>J26*$B$1</f>
-        <v>1029.5</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>870</v>
+      </c>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D27" s="7">
-        <v>9.99</v>
+        <v>3.69</v>
       </c>
       <c r="E27" s="8">
         <f>D27*$B$1</f>
-        <v>2897.1</v>
+        <v>1070.0999999999999</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>13</v>
@@ -2011,17 +2035,17 @@
         <v>117</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>9</v>
       </c>
       <c r="J27" s="7">
-        <v>8.6</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="K27" s="8">
         <f>J27*$B$1</f>
-        <v>2494</v>
+        <v>1203.5</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>13</v>
@@ -2029,20 +2053,20 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D28" s="7">
-        <v>7.99</v>
+        <v>3.35</v>
       </c>
       <c r="E28" s="8">
         <f>D28*$B$1</f>
-        <v>2317.1</v>
+        <v>971.5</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>13</v>
@@ -2051,17 +2075,17 @@
         <v>117</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J28" s="7">
-        <v>9.49</v>
+        <v>3.55</v>
       </c>
       <c r="K28" s="8">
         <f>J28*$B$1</f>
-        <v>2752.1</v>
+        <v>1029.5</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>13</v>
@@ -2072,17 +2096,17 @@
         <v>119</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D29" s="7">
-        <v>14.99</v>
+        <v>5.99</v>
       </c>
       <c r="E29" s="8">
         <f>D29*$B$1</f>
-        <v>4347.1000000000004</v>
+        <v>1737.1000000000001</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>13</v>
@@ -2091,17 +2115,17 @@
         <v>117</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J29" s="7">
-        <v>9.19</v>
+        <v>8.6</v>
       </c>
       <c r="K29" s="8">
         <f>J29*$B$1</f>
-        <v>2665.1</v>
+        <v>2494</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>13</v>
@@ -2112,17 +2136,17 @@
         <v>119</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D30" s="7">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="E30" s="8">
         <f>D30*$B$1</f>
-        <v>1447.1000000000001</v>
+        <v>2897.1</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>13</v>
@@ -2131,15 +2155,17 @@
         <v>117</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" s="11"/>
+        <v>99</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J30" s="7">
-        <v>5.99</v>
+        <v>9.49</v>
       </c>
       <c r="K30" s="8">
         <f>J30*$B$1</f>
-        <v>1737.1000000000001</v>
+        <v>2752.1</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>13</v>
@@ -2147,20 +2173,20 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D31" s="7">
-        <v>21.99</v>
+        <v>7.99</v>
       </c>
       <c r="E31" s="8">
         <f>D31*$B$1</f>
-        <v>6377.0999999999995</v>
+        <v>2317.1</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>13</v>
@@ -2169,17 +2195,17 @@
         <v>117</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="J31" s="7">
-        <v>7.01</v>
+        <v>9.19</v>
       </c>
       <c r="K31" s="8">
         <f>J31*$B$1</f>
-        <v>2032.8999999999999</v>
+        <v>2665.1</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>13</v>
@@ -2187,20 +2213,20 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D32" s="7">
-        <v>8.6</v>
+        <v>14.99</v>
       </c>
       <c r="E32" s="8">
         <f>D32*$B$1</f>
-        <v>2494</v>
+        <v>4347.1000000000004</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>13</v>
@@ -2209,17 +2235,15 @@
         <v>117</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>58</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I32" s="11"/>
       <c r="J32" s="7">
-        <v>19.899999999999999</v>
+        <v>5.99</v>
       </c>
       <c r="K32" s="8">
         <f>J32*$B$1</f>
-        <v>5771</v>
+        <v>1737.1000000000001</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>13</v>
@@ -2227,20 +2251,20 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D33" s="7">
-        <v>6.75</v>
+        <v>4.99</v>
       </c>
       <c r="E33" s="8">
         <f>D33*$B$1</f>
-        <v>1957.5</v>
+        <v>1447.1000000000001</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>13</v>
@@ -2249,101 +2273,140 @@
         <v>117</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J33" s="7">
-        <v>8.7899999999999991</v>
+        <v>7.01</v>
       </c>
       <c r="K33" s="8">
         <f>J33*$B$1</f>
-        <v>2549.1</v>
+        <v>2032.8999999999999</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="6"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="6"/>
+      <c r="A34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="7">
+        <v>21.99</v>
+      </c>
+      <c r="E34" s="8">
+        <f>D34*$B$1</f>
+        <v>6377.0999999999995</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G34" s="6" t="s">
         <v>117</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J34" s="7">
-        <v>28.59</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K34" s="8">
         <f>J34*$B$1</f>
-        <v>8291.1</v>
+        <v>5771</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="6"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="6"/>
+      <c r="A35" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="E35" s="8">
+        <f>D35*$B$1</f>
+        <v>2494</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G35" s="6" t="s">
         <v>117</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J35" s="7">
-        <v>8.99</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="K35" s="8">
         <f>J35*$B$1</f>
-        <v>2607.1</v>
+        <v>2549.1</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="6"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="6"/>
+      <c r="A36" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="7">
+        <v>6.75</v>
+      </c>
+      <c r="E36" s="8">
+        <f>D36*$B$1</f>
+        <v>1957.5</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G36" s="6" t="s">
         <v>117</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J36" s="7">
-        <v>5.67</v>
+        <v>28.59</v>
       </c>
       <c r="K36" s="8">
         <f>J36*$B$1</f>
-        <v>1644.3</v>
+        <v>8291.1</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2357,17 +2420,17 @@
         <v>117</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J37" s="7">
-        <v>10.29</v>
+        <v>8.99</v>
       </c>
       <c r="K37" s="8">
         <f>J37*$B$1</f>
-        <v>2984.1</v>
+        <v>2607.1</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>13</v>
@@ -2384,17 +2447,17 @@
         <v>117</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J38" s="7">
-        <v>3.79</v>
+        <v>5.67</v>
       </c>
       <c r="K38" s="8">
         <f>J38*$B$1</f>
-        <v>1099.0999999999999</v>
+        <v>1644.3</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>12</v>
@@ -2411,20 +2474,20 @@
         <v>117</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="J39" s="7">
-        <v>2.99</v>
+        <v>10.29</v>
       </c>
       <c r="K39" s="8">
         <f>J39*$B$1</f>
-        <v>867.1</v>
+        <v>2984.1</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2438,20 +2501,20 @@
         <v>117</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="J40" s="7">
-        <v>3.6</v>
+        <v>3.79</v>
       </c>
       <c r="K40" s="8">
         <f>J40*$B$1</f>
-        <v>1044</v>
+        <v>1099.0999999999999</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2465,10 +2528,10 @@
         <v>117</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="J41" s="7">
         <v>2.99</v>
@@ -2478,7 +2541,7 @@
         <v>867.1</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2492,17 +2555,17 @@
         <v>117</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="J42" s="7">
-        <v>31.6</v>
+        <v>3.6</v>
       </c>
       <c r="K42" s="8">
         <f>J42*$B$1</f>
-        <v>9164</v>
+        <v>1044</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>13</v>
@@ -2519,25 +2582,79 @@
         <v>117</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J43" s="7">
-        <v>16.190000000000001</v>
+        <v>2.99</v>
       </c>
       <c r="K43" s="8">
         <f>J43*$B$1</f>
+        <v>867.1</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="6"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="7">
+        <v>31.6</v>
+      </c>
+      <c r="K44" s="8">
+        <f>J44*$B$1</f>
+        <v>9164</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="6"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J45" s="7">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="K45" s="8">
+        <f>J45*$B$1</f>
         <v>4695.1000000000004</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L45" s="6" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F74">
-    <sortCondition ref="A3:A74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F78">
+    <sortCondition ref="A3:A78"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
